--- a/documentation/TimeAccounting_EECS448project3.xlsx
+++ b/documentation/TimeAccounting_EECS448project3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\EECS448_Project3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FF8131-F11B-4B8E-8D90-61A52DFAC2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF60D23-D1AA-4933-BBD0-0740CB53E037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7065" yWindow="2258" windowWidth="12938" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>TEAM 02</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Wednesday, March 31, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion </t>
   </si>
 </sst>
 </file>
@@ -656,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="110" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
@@ -707,7 +713,7 @@
       </c>
       <c r="S1" s="62">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>0</v>
+        <v>0.32013888888888892</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -786,10 +792,16 @@
       <c r="A4" s="50">
         <v>44281</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="18">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="13"/>
@@ -804,7 +816,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5694444444444464E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
@@ -961,10 +973,16 @@
       <c r="A11" s="50">
         <v>44288</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="18">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.55833333333333335</v>
+      </c>
       <c r="F11" s="51"/>
       <c r="G11" s="10"/>
       <c r="H11" s="39"/>
@@ -975,11 +993,15 @@
       <c r="M11" s="53"/>
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="P11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0.5625</v>
+      </c>
       <c r="R11" s="47">
         <f>(E11-D11)+(I11-H11)+(K11-J11)+(M11-L11)+(O11-N11)+(Q11-P11)</f>
-        <v>0</v>
+        <v>8.6111111111111138E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1">
@@ -1000,11 +1022,15 @@
       <c r="M12" s="53"/>
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="P12" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -1025,11 +1051,15 @@
       <c r="M13" s="53"/>
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="Q13" s="55">
+        <v>0.5</v>
+      </c>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1050,7 +1080,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="41">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0</v>
+        <v>0.32013888888888892</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1">
@@ -1071,7 +1101,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0</v>
+        <v>4.9305555555555602E-2</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1">
@@ -1084,7 +1114,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0</v>
+        <v>4.9305555555555602E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1">
@@ -1094,7 +1124,7 @@
       <c r="R19" s="34"/>
       <c r="S19" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0</v>
+        <v>4.9305555555555602E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
@@ -1104,7 +1134,7 @@
       <c r="R20" s="35"/>
       <c r="S20" s="40">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0</v>
+        <v>4.9305555555555602E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1">
@@ -1117,7 +1147,7 @@
       <c r="R22" s="38"/>
       <c r="S22" s="46">
         <f>(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>0</v>
+        <v>4.9305555555555602E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="14.25" customHeight="1">
@@ -1133,7 +1163,7 @@
       <c r="R24" s="27"/>
       <c r="S24" s="41">
         <f>(Q3-P3)+(Q4-P4)+(Q5-P5)+(Q6-P6)+(Q7-P7)+(Q8-P8)+(Q9-P9)+(Q10-P10)+(Q11-P11)+(Q12-P12)+(Q13-P13)</f>
-        <v>0</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="14.25" customHeight="1">

--- a/documentation/TimeAccounting_EECS448project3.xlsx
+++ b/documentation/TimeAccounting_EECS448project3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\EECS448_Project3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF60D23-D1AA-4933-BBD0-0740CB53E037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215378D6-0219-4257-A2E3-E7EBD02A6301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7065" yWindow="2258" windowWidth="12938" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>

--- a/documentation/TimeAccounting_EECS448project3.xlsx
+++ b/documentation/TimeAccounting_EECS448project3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\EECS448_Project3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215378D6-0219-4257-A2E3-E7EBD02A6301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A946B5-4C27-4DB9-BC1D-E271DC1B54E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7065" yWindow="2258" windowWidth="12938" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="S1" s="62">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>0.32013888888888892</v>
+        <v>0.90486111111111123</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -1016,8 +1016,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
+      <c r="J12" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K12" s="52">
+        <v>1.0104166666666667</v>
+      </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
       <c r="N12" s="54"/>
@@ -1030,7 +1034,7 @@
       </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>8.3333333333333315E-2</v>
+        <v>0.63541666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -1045,8 +1049,12 @@
       <c r="G13" s="10"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="J13" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0.4909722222222222</v>
+      </c>
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
       <c r="N13" s="54"/>
@@ -1059,7 +1067,7 @@
       </c>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.15763888888888888</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1124,7 +1132,7 @@
       <c r="R19" s="34"/>
       <c r="S19" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>4.9305555555555602E-2</v>
+        <v>0.63402777777777797</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
@@ -1193,7 +1201,7 @@
       <c r="R27" s="34"/>
       <c r="S27" s="44">
         <f>(K3-J3)+(K4-J4)+(K5-J5)+(K6-J6)+(K7-J7)+(K8-J8)+(K9-J9)+(K10-J10)+(K11-J11)+(K12-J12)+(K13-J13)</f>
-        <v>0</v>
+        <v>0.58472222222222237</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="14.25" customHeight="1">

--- a/documentation/TimeAccounting_EECS448project3.xlsx
+++ b/documentation/TimeAccounting_EECS448project3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\EECS448_Project3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A946B5-4C27-4DB9-BC1D-E271DC1B54E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66621062-540A-4723-A306-99834387D909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="2258" windowWidth="12938" windowHeight="12067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7118" yWindow="2332" windowWidth="12937" windowHeight="12068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>TEAM 02</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t xml:space="preserve">Discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentatiom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic/design </t>
   </si>
 </sst>
 </file>
@@ -662,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
@@ -713,7 +722,7 @@
       </c>
       <c r="S1" s="62">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>0.90486111111111123</v>
+        <v>1.3631944444444446</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -983,7 +992,9 @@
       <c r="E11" s="18">
         <v>0.55833333333333335</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
@@ -1012,10 +1023,16 @@
       <c r="C12" s="10"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="H12" s="39">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="J12" s="52">
         <v>0.45833333333333331</v>
       </c>
@@ -1034,7 +1051,7 @@
       </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>0.63541666666666674</v>
+        <v>0.88541666666666674</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -1045,10 +1062,16 @@
       <c r="C13" s="10"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="H13" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="I13" s="39">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="J13" s="52">
         <v>0.45833333333333331</v>
       </c>
@@ -1067,7 +1090,7 @@
       </c>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0.15763888888888888</v>
+        <v>0.36597222222222225</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1142,7 +1165,7 @@
       <c r="R20" s="35"/>
       <c r="S20" s="40">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>4.9305555555555602E-2</v>
+        <v>0.50763888888888897</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1">
@@ -1211,7 +1234,7 @@
       <c r="R28" s="35"/>
       <c r="S28" s="45">
         <f>(I3-H3)+(I4-H4)+(I5-H5)+(I6-H6)+(I7-H7)+(I8-H8)+(I9-H9)+(I10-H10)+(I11-H11)+(I12-H12)+(I13-H13)</f>
-        <v>0</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.25" customHeight="1"/>

--- a/documentation/TimeAccounting_EECS448project3.xlsx
+++ b/documentation/TimeAccounting_EECS448project3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miria\Desktop\EECS448_Project3\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelynblackburn/Desktop/College/2021 Spring/EECS 448/Project3/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66621062-540A-4723-A306-99834387D909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA564C-F391-2C45-8506-EEBACFC343AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7118" yWindow="2332" windowWidth="12937" windowHeight="12068" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="460" windowWidth="19060" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,14 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1875" customWidth="1"/>
-    <col min="2" max="26" width="7.6875" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -722,7 +722,7 @@
       </c>
       <c r="S1" s="62">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>1.3631944444444446</v>
+        <v>1.6131944444444448</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -1041,8 +1041,12 @@
       </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="N12" s="54">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O12" s="54">
+        <v>0.5</v>
+      </c>
       <c r="P12" s="22">
         <v>0.45833333333333331</v>
       </c>
@@ -1051,7 +1055,7 @@
       </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>0.88541666666666674</v>
+        <v>0.92708333333333348</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -1080,8 +1084,12 @@
       </c>
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="N13" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="54">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="P13" s="22">
         <v>0.375</v>
       </c>
@@ -1090,7 +1098,7 @@
       </c>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0.36597222222222225</v>
+        <v>0.57430555555555562</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1132,7 +1140,7 @@
       <c r="R17" s="31"/>
       <c r="S17" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>4.9305555555555602E-2</v>
+        <v>0.29930555555555566</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1">
@@ -1204,7 +1212,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="42">
         <f>(O3-N3)+(O4-N4)+(O5-N5)+(O6-N6)+(O7-N7)+(O8-N8)+(O9-N9)+(O10-N10)+(O11-N11)+(O12-N12)+(O13-N13)</f>
-        <v>0</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="14.25" customHeight="1">

--- a/documentation/TimeAccounting_EECS448project3.xlsx
+++ b/documentation/TimeAccounting_EECS448project3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katelynblackburn/Desktop/College/2021 Spring/EECS 448/Project3/EECS448_Project3/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aidan\Desktop\ku\junior spring\EECS 448Projects\EECS448_Project3\EECS448_Project3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA564C-F391-2C45-8506-EEBACFC343AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDB301C-B5B2-4A3A-873D-6EA92444041A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="460" windowWidth="19060" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="18060" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,14 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="26" width="7.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.25" customHeight="1">
@@ -722,7 +722,7 @@
       </c>
       <c r="S1" s="62">
         <f>R3+R4+R5+R6+R7+R8+R9+R10+R11+R12+R13</f>
-        <v>1.6131944444444448</v>
+        <v>1.8555555555555556</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
@@ -1039,8 +1039,12 @@
       <c r="K12" s="52">
         <v>1.0104166666666667</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="L12" s="53">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="M12" s="53">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="N12" s="54">
         <v>0.45833333333333331</v>
       </c>
@@ -1055,7 +1059,7 @@
       </c>
       <c r="R12" s="47">
         <f t="shared" si="1"/>
-        <v>0.92708333333333348</v>
+        <v>0.96805555555555567</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1">
@@ -1082,8 +1086,12 @@
       <c r="K13" s="52">
         <v>0.4909722222222222</v>
       </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="L13" s="53">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M13" s="53">
+        <v>0.99305555555555547</v>
+      </c>
       <c r="N13" s="54">
         <v>0.5</v>
       </c>
@@ -1098,7 +1106,7 @@
       </c>
       <c r="R13" s="47">
         <f t="shared" si="1"/>
-        <v>0.57430555555555562</v>
+        <v>0.77569444444444446</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1">
@@ -1153,7 +1161,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)+(E3-D3)+(E4-D4)+(E5-D5)+(E6-D6)+(E7-D7)+(E8-D8)+(E9-D9)+(E10-D10)+(E11-D11)+(E12-D12)+(E13-D13)</f>
-        <v>4.9305555555555602E-2</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="14.25" customHeight="1">
@@ -1222,7 +1230,7 @@
       <c r="R26" s="33"/>
       <c r="S26" s="43">
         <f>(M3-L3)+(M4-L4)+(M5-L5)+(M6-L6)+(M7-L7)+(M8-L8)+(M9-L9)+(M10-L10)+(M11-L11)+(M12-L12)+(M13-L13)</f>
-        <v>0</v>
+        <v>0.24236111111111103</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="14.25" customHeight="1">
